--- a/biology/Microbiologie/Sultanophrys_arabica/Sultanophrys_arabica.xlsx
+++ b/biology/Microbiologie/Sultanophrys_arabica/Sultanophrys_arabica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sultanophrys, Sultanophryidae
 Sultanophrys arabica, unique représentant du genre Sultanophrys et de la famille des Sultanophryidae, est une espèce de Ciliés de la classe des Karyorelictea et de l’ordre des Trachelocercida.
@@ -512,10 +524,12 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de Sultanophrys est composé du mot anglo-français sultan, « prince, souverain », et du mot grec ancien οφρύς / ophrýs, signifiant « sourcil, cil, cilié (par extension) », littéralement « cilié du prince »
-[1], peut-être en référence au fait que ce cilié fut découvert dans le golfe Persique zone de sultanas et d'émirats.
+, peut-être en référence au fait que ce cilié fut découvert dans le golfe Persique zone de sultanas et d'émirats.
 </t>
         </is>
       </c>
@@ -544,10 +558,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Sultanophrys arabica se distingue par sa grande taille (environ 800 × 70 μm), l'existence d'une bande glabre (c'est-à-dire sans cils) presque aussi large que la cellule , des granules corticaux brun brillant très visibles, et le grand nombre de nodules macronucléaires, entre 13–47, et des rangées ciliaires, entre 31 et 40[1].
-Cette espèce présente deux caractéristiques uniques justifiant sa séparation des autres espèces de l'ordre des Trachelocercida[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Sultanophrys arabica se distingue par sa grande taille (environ 800 × 70 μm), l'existence d'une bande glabre (c'est-à-dire sans cils) presque aussi large que la cellule , des granules corticaux brun brillant très visibles, et le grand nombre de nodules macronucléaires, entre 13–47, et des rangées ciliaires, entre 31 et 40.
+Cette espèce présente deux caractéristiques uniques justifiant sa séparation des autres espèces de l'ordre des Trachelocercida :
 le système sécant antérieur[note 1] est situé sur le côté droit de la bande glabre,
 il y a une « cinétie latérale » spéciale entre la branche gauche de la cinétie des soies et la première rangée ciliaire somatique ordinaire.</t>
         </is>
@@ -577,9 +593,11 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sultanophrys arabica a été découverte dans la boue d'un étang côtier saumâtre sur la côte du golfe Persique, près du village de Safwa (Arabie Saoudite)[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sultanophrys arabica a été découverte dans la boue d'un étang côtier saumâtre sur la côte du golfe Persique, près du village de Safwa (Arabie Saoudite).
 </t>
         </is>
       </c>
@@ -608,9 +626,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce, unique en son genre et sa famille, a été décrite en 1999 par Wilhelm Foissner (d) et Khaled Al-Rasheid (d)[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce, unique en son genre et sa famille, a été décrite en 1999 par Wilhelm Foissner (d) et Khaled Al-Rasheid (d).
 </t>
         </is>
       </c>
@@ -639,7 +659,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>(en) Wilhelm Foissner et Khaled A S Al-Rasheid, « Updating the trachelocercids (Ciliophora, karyorelictea). VI. A detailed description of Sultanophrys arabica nov. gen., nov. spec. (Sultanophryidae nov. fam.) », European Journal of Protistology, Elsevier, vol. 35, no 2,‎ juin 1999, p. 146-160 (ISSN 0932-4739, 1618-0429 et 0932-4739, DOI 10.1016/S0932-4739(99)80032-7)</t>
         </is>
